--- a/data/parent_labeling.xlsx
+++ b/data/parent_labeling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Stav\vscode\ema-pipeline\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B16ABA5E-5C78-4E0C-A822-C12157B1ABEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9156D2C4-E226-4498-9536-810ACFCE5E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CEFD4C3A-7C82-40F5-9F57-98EFDBC69B4F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>P_Inv_Help</t>
   </si>
@@ -86,9 +86,6 @@
     <t>hebrew_option</t>
   </si>
   <si>
-    <t>variable_name</t>
-  </si>
-  <si>
     <t>למיטב ידיעתי - ברגע זה הילד/ה שלי מרגיש/ה טוב</t>
   </si>
   <si>
@@ -107,132 +104,69 @@
     <t>צעק/ה</t>
   </si>
   <si>
-    <t>P_Outburst_Shout</t>
-  </si>
-  <si>
     <t>טרק/ה דלת</t>
   </si>
   <si>
-    <t>P_Outburst_Door</t>
-  </si>
-  <si>
     <t>זרק/ה משהו</t>
   </si>
   <si>
-    <t>P_Outburst_Throw</t>
-  </si>
-  <si>
     <t>הרביץ/ה או פגע/ה במישהו</t>
   </si>
   <si>
-    <t>P_Outburst_Hit</t>
-  </si>
-  <si>
     <t>לא התפרץ/ה בכעס</t>
   </si>
   <si>
-    <t>P_Outburst_None</t>
-  </si>
-  <si>
     <t>אחר (בבקשה לפרט)</t>
   </si>
   <si>
-    <t>P_Outburst_Other</t>
-  </si>
-  <si>
     <t>תן/י דוגמאות למשהו שעצבן את הילד/ה שלך היום (טריגר) (אפשר גם להקליט תשובה)</t>
   </si>
   <si>
-    <t>P_Trigger_Text</t>
-  </si>
-  <si>
     <t>מאז הסקר האחרון, החמאתי לילד/ה שלי כשהוא/היא עשה/תה משהו בצורה טובה</t>
   </si>
   <si>
-    <t>P_Praise</t>
-  </si>
-  <si>
     <t>מאז הסקר האחרון, הילד/ה שלי עצבן/ה אותי</t>
   </si>
   <si>
-    <t>P_Child_Annoyed</t>
-  </si>
-  <si>
     <t>מאז הסקר האחרון, הסכמתי לילד/ה שלי כל מה שרצ/תה</t>
   </si>
   <si>
-    <t>P_Parent_OverPermissive</t>
-  </si>
-  <si>
     <t>מאז הסקר האחרון, התעצבנתי או צעקתי על הילד/ה שלי</t>
   </si>
   <si>
-    <t>P_Parent_Yelled</t>
-  </si>
-  <si>
     <t>מאז הסקר האחרון, הילד/ה שלי שיתף/ה אותי ברגשות/תחושות שלו/ה</t>
   </si>
   <si>
-    <t>P_Child_OpenedUp</t>
-  </si>
-  <si>
     <t>מאז הסקר האחרון, הייתי סבלני/ת כלפי הילד/ה שלי</t>
   </si>
   <si>
-    <t>P_Patient</t>
-  </si>
-  <si>
     <t>מאז הסקר האחרון, העברתי ביקורת על הילד/ה שלי</t>
   </si>
   <si>
-    <t>P_Criticized</t>
-  </si>
-  <si>
     <t>מאז הסקר האחרון איימתי להעניש את הילד/ה שלי ואז לא עשיתי זאת</t>
   </si>
   <si>
     <t>כן</t>
   </si>
   <si>
-    <t>P_Threat_NoFollow_Yes</t>
-  </si>
-  <si>
     <t>לא</t>
   </si>
   <si>
-    <t>P_Threat_NoFollow_No</t>
-  </si>
-  <si>
     <t>מאז הסקר האחרון, הרגשתי בטוח/ה ביכולותיי ההוריות</t>
   </si>
   <si>
-    <t>P_Confident</t>
-  </si>
-  <si>
-    <t>P_SpeaksWithoutThinking</t>
-  </si>
-  <si>
     <t>מאז הסקר האחרון, לילד/ה שלי היה קשה להפסיק לעשות משהו כאשר ביקשו ממנו/ה להפסיק</t>
   </si>
   <si>
     <t>P_Difficult_Stop</t>
   </si>
   <si>
-    <t>P_Easily_Distracted</t>
-  </si>
-  <si>
     <t>למיטב ידיעתי - ברגע זה, הילד/ה שלי מרגיש/ה חסר/ת מנוחה</t>
   </si>
   <si>
-    <t>P_Restless</t>
-  </si>
-  <si>
     <t>למיטב ידיעתי - ברגע זה, הילד/ה שלי מרגיש/ה פחד או לחץ</t>
   </si>
   <si>
-    <t>P_Fear_Stress</t>
-  </si>
-  <si>
     <t>מאז הסקר האחרון, הילד/ה שלי הרגיש/ה מודאג/ת או מפוחד/ת</t>
   </si>
   <si>
@@ -243,14 +177,88 @@
   </si>
   <si>
     <t>היום עזרתי בפעילות שבה הילד/ה שלי מעורב, או עזרתי לו/ה במשהו כללי אחר (כמו הקפצה לחוג, עזרה בשיעורי בית וכו')</t>
+  </si>
+  <si>
+    <t>P_ADHD_Distracted</t>
+  </si>
+  <si>
+    <t>P_ADHD_Restless</t>
+  </si>
+  <si>
+    <t>P_Agr_slam</t>
+  </si>
+  <si>
+    <t>P_Agr_hit</t>
+  </si>
+  <si>
+    <t>P_Agr_none</t>
+  </si>
+  <si>
+    <t>P_Agr_other</t>
+  </si>
+  <si>
+    <t>P_Agr_yelled</t>
+  </si>
+  <si>
+    <t>זרק/ה משהו על מישהו</t>
+  </si>
+  <si>
+    <t>P_Agr_throw_twd</t>
+  </si>
+  <si>
+    <t>P_Agr_throw_smt</t>
+  </si>
+  <si>
+    <t>P_Discipline</t>
+  </si>
+  <si>
+    <t>P_IC_FirstOnMind</t>
+  </si>
+  <si>
+    <t>P_Positive</t>
+  </si>
+  <si>
+    <t>P_PS_Patient</t>
+  </si>
+  <si>
+    <t>P_PS_GotAngry</t>
+  </si>
+  <si>
+    <t>P_PS_Confident</t>
+  </si>
+  <si>
+    <t>P_PC_Sharing</t>
+  </si>
+  <si>
+    <t>P_Anx_now</t>
+  </si>
+  <si>
+    <t>P_PC_Annoy</t>
+  </si>
+  <si>
+    <t>P_PC_Criticism</t>
+  </si>
+  <si>
+    <t>P_PS_Agree</t>
+  </si>
+  <si>
+    <t>label</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -278,13 +286,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -295,6 +310,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48075A09-E877-4064-97CA-C231BA9F7DBD}" name="Table1" displayName="Table1" ref="A1:C34" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:C34" xr:uid="{48075A09-E877-4064-97CA-C231BA9F7DBD}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B4C39753-B676-4F0D-97F2-6088C88425C8}" name="hebrew_text"/>
+    <tableColumn id="2" xr3:uid="{784970A4-5EAC-4080-9949-A1CB29371394}" name="hebrew_option"/>
+    <tableColumn id="3" xr3:uid="{84964151-639B-4D02-8774-422F30A449E7}" name="label"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -614,11 +641,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E77C57F-D1BA-485F-911F-7AC1D9D16DE9}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -628,51 +653,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
-        <v>16</v>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -680,245 +711,256 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C37">
+    <sortCondition ref="C2:C37"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/parent_labeling.xlsx
+++ b/data/parent_labeling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Stav\vscode\ema-pipeline\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9156D2C4-E226-4498-9536-810ACFCE5E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4C9EB0-2F2F-4F5D-A074-B7D7381A3CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CEFD4C3A-7C82-40F5-9F57-98EFDBC69B4F}"/>
+    <workbookView xWindow="17790" yWindow="2385" windowWidth="10155" windowHeight="8220" xr2:uid="{CEFD4C3A-7C82-40F5-9F57-98EFDBC69B4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
   <si>
     <t>P_Inv_Help</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>label</t>
+  </si>
+  <si>
+    <t>למיטב ידיעתי - ברגע זה הילד/ה שלי מרגיש/ה חסר/ת מנוחה</t>
   </si>
 </sst>
 </file>
@@ -313,8 +316,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48075A09-E877-4064-97CA-C231BA9F7DBD}" name="Table1" displayName="Table1" ref="A1:C34" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:C34" xr:uid="{48075A09-E877-4064-97CA-C231BA9F7DBD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48075A09-E877-4064-97CA-C231BA9F7DBD}" name="Table1" displayName="Table1" ref="A1:C35" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:C35" xr:uid="{48075A09-E877-4064-97CA-C231BA9F7DBD}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B4C39753-B676-4F0D-97F2-6088C88425C8}" name="hebrew_text"/>
     <tableColumn id="2" xr3:uid="{784970A4-5EAC-4080-9949-A1CB29371394}" name="hebrew_option"/>
@@ -641,9 +644,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E77C57F-D1BA-485F-911F-7AC1D9D16DE9}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -673,7 +678,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
         <v>48</v>
@@ -681,13 +686,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -695,29 +697,29 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -725,10 +727,10 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -736,10 +738,10 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -747,10 +749,10 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -758,53 +760,53 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -812,7 +814,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
         <v>57</v>
@@ -820,143 +822,154 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C37">
-    <sortCondition ref="C2:C37"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C38">
+    <sortCondition ref="C2:C38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/data/parent_labeling.xlsx
+++ b/data/parent_labeling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Stav\vscode\ema-pipeline\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4C9EB0-2F2F-4F5D-A074-B7D7381A3CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64D953D-48BE-4290-95D1-55238CFD286C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17790" yWindow="2385" windowWidth="10155" windowHeight="8220" xr2:uid="{CEFD4C3A-7C82-40F5-9F57-98EFDBC69B4F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CEFD4C3A-7C82-40F5-9F57-98EFDBC69B4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
   <si>
     <t>P_Inv_Help</t>
   </si>
@@ -62,9 +62,6 @@
     <t>תן/י דוגמאות למשהו שעצבן את הילד/ה שלך היום (טריגר)</t>
   </si>
   <si>
-    <t>P_triggres</t>
-  </si>
-  <si>
     <t>P_Mood_Sad</t>
   </si>
   <si>
@@ -246,6 +243,12 @@
   </si>
   <si>
     <t>למיטב ידיעתי - ברגע זה הילד/ה שלי מרגיש/ה חסר/ת מנוחה</t>
+  </si>
+  <si>
+    <t>(אפשר גם להקליט תשובה) תן/י דוגמאות למשהו שעצבן את הילד/ה שלך היום (טריגר)</t>
+  </si>
+  <si>
+    <t>P_triggers</t>
   </si>
 </sst>
 </file>
@@ -289,9 +292,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -316,8 +322,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48075A09-E877-4064-97CA-C231BA9F7DBD}" name="Table1" displayName="Table1" ref="A1:C35" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:C35" xr:uid="{48075A09-E877-4064-97CA-C231BA9F7DBD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48075A09-E877-4064-97CA-C231BA9F7DBD}" name="Table1" displayName="Table1" ref="A1:C36" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:C36" xr:uid="{48075A09-E877-4064-97CA-C231BA9F7DBD}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B4C39753-B676-4F0D-97F2-6088C88425C8}" name="hebrew_text"/>
     <tableColumn id="2" xr3:uid="{784970A4-5EAC-4080-9949-A1CB29371394}" name="hebrew_option"/>
@@ -644,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E77C57F-D1BA-485F-911F-7AC1D9D16DE9}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,64 +665,64 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -724,62 +730,62 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
         <v>54</v>
-      </c>
-      <c r="C11" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -787,15 +793,15 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -803,45 +809,45 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
         <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -849,7 +855,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
@@ -857,7 +863,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -865,7 +871,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -873,90 +879,90 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -964,7 +970,15 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
